--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1179.xlsx
@@ -354,7 +354,7 @@
         <v>1.980300089032985</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.914532961444421</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1179.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1179.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.111168222654363</v>
+        <v>1.167270660400391</v>
       </c>
       <c r="B1">
-        <v>1.980300089032985</v>
+        <v>2.437687635421753</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.914532961444421</v>
+        <v>2.368618249893188</v>
       </c>
       <c r="E1">
-        <v>1.112483182890504</v>
+        <v>1.233832001686096</v>
       </c>
     </row>
   </sheetData>
